--- a/formats/excel/Formats RSA 12.xlsx
+++ b/formats/excel/Formats RSA 12.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/R/pmeasyr_versions/pmeasyr_0.2/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540" tabRatio="500"/>
+    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,519 +12,838 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$74</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
   <si>
     <t>NOFINESS</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Finess de l'établissement</t>
+  </si>
+  <si>
     <t>NOVRSA</t>
   </si>
   <si>
+    <t>Numéro de version du RSA</t>
+  </si>
+  <si>
     <t>CLE_RSA</t>
   </si>
   <si>
+    <t>Clé RSA</t>
+  </si>
+  <si>
     <t>NOVRSS</t>
   </si>
   <si>
+    <t>Numéro de version du RSS groupé</t>
+  </si>
+  <si>
     <t>NOSEQTA</t>
   </si>
   <si>
+    <t>Numéro séquentiel des tarifs</t>
+  </si>
+  <si>
     <t>GPVCLASS</t>
   </si>
   <si>
+    <t>Groupage lu : Version de la classification</t>
+  </si>
+  <si>
     <t>GPCMD</t>
   </si>
   <si>
+    <t>Groupage lu : CMD du GHM</t>
+  </si>
+  <si>
     <t>GPTYPE</t>
   </si>
   <si>
+    <t>Groupage lu : Type de GHM</t>
+  </si>
+  <si>
     <t>GPNUM</t>
   </si>
   <si>
+    <t>Groupage lu : Numéro du GHM</t>
+  </si>
+  <si>
     <t>GPCOMPX</t>
   </si>
   <si>
+    <t>Groupage lu : Niveau de sévérité du GHM</t>
+  </si>
+  <si>
     <t>GPCDRETR</t>
   </si>
   <si>
+    <t>Groupage lu : Codes retours</t>
+  </si>
+  <si>
     <t>RSAVCLASS</t>
   </si>
   <si>
+    <t>Gp Genrsa : Version de la classification</t>
+  </si>
+  <si>
     <t>RSACMD</t>
   </si>
   <si>
+    <t>Gp Genrsa : CMD du GHM</t>
+  </si>
+  <si>
     <t>RSATYPE</t>
   </si>
   <si>
+    <t>Gp Genrsa : Type de GHM</t>
+  </si>
+  <si>
     <t>RSANUM</t>
   </si>
   <si>
+    <t>Gp Genrsa : Numéro du GHM</t>
+  </si>
+  <si>
     <t>RSACOMPX</t>
   </si>
   <si>
+    <t>Gp Genrsa : Niveau de sévérité du GHM</t>
+  </si>
+  <si>
     <t>RSACDRETR</t>
   </si>
   <si>
+    <t>Gp Genrsa : Codes retours</t>
+  </si>
+  <si>
     <t>NBRUM</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Nombre de RUM du séjour</t>
+  </si>
+  <si>
     <t>AGEAN</t>
   </si>
   <si>
+    <t>Âge en années</t>
+  </si>
+  <si>
     <t>AGEJR</t>
   </si>
   <si>
+    <t>Âge en jours</t>
+  </si>
+  <si>
     <t>SEXE</t>
   </si>
   <si>
+    <t>Sexe</t>
+  </si>
+  <si>
     <t>ECHPMSI</t>
   </si>
   <si>
+    <t>Mode d'entrée dans le champ PMSI</t>
+  </si>
+  <si>
     <t>PROV</t>
   </si>
   <si>
+    <t>Provenance</t>
+  </si>
+  <si>
     <t>MOISSOR</t>
   </si>
   <si>
+    <t>Mois de sortie</t>
+  </si>
+  <si>
     <t>ANSOR</t>
   </si>
   <si>
+    <t>Année de sortie</t>
+  </si>
+  <si>
     <t>SCHPMSI</t>
   </si>
   <si>
+    <t>Mode de sortie du champ PMSI</t>
+  </si>
+  <si>
     <t>DEST</t>
   </si>
   <si>
+    <t>Destination</t>
+  </si>
+  <si>
     <t>TYPESEJ</t>
   </si>
   <si>
+    <t>Type de séjour</t>
+  </si>
+  <si>
     <t>DUREE</t>
   </si>
   <si>
+    <t>Durée du séjour</t>
+  </si>
+  <si>
     <t>CDGEO</t>
   </si>
   <si>
+    <t>Code géographique</t>
+  </si>
+  <si>
     <t>POIDS</t>
   </si>
   <si>
+    <t>Poids à l'entrée (grammes)</t>
+  </si>
+  <si>
     <t>AGEGEST</t>
   </si>
   <si>
+    <t>Âge gestationnel</t>
+  </si>
+  <si>
     <t>DELAIREG</t>
   </si>
   <si>
+    <t>Délai depuis les dernières rêgles / date d'entrée</t>
+  </si>
+  <si>
     <t>NBSEANCE</t>
   </si>
   <si>
+    <t>Nombre de séances</t>
+  </si>
+  <si>
     <t>NOGHS</t>
   </si>
   <si>
+    <t>Numéro du GHS</t>
+  </si>
+  <si>
     <t>NBJRBS</t>
   </si>
   <si>
+    <t>Nombre de jours EXH</t>
+  </si>
+  <si>
     <t>SEJINFBI</t>
   </si>
   <si>
+    <t>Séjour inférieur à la borne extrême basse</t>
+  </si>
+  <si>
     <t>NBJREXB</t>
   </si>
   <si>
+    <t>Nombre de jours EXB</t>
+  </si>
+  <si>
+    <t>FILLER1</t>
+  </si>
+  <si>
     <t>UHCD</t>
   </si>
   <si>
+    <t>Top UHCD</t>
+  </si>
+  <si>
     <t>CONFCDSEJ</t>
   </si>
   <si>
+    <t>Confirmation codage du séjour</t>
+  </si>
+  <si>
     <t>NBAUTPGV</t>
   </si>
   <si>
+    <t>Nb autorisations UM à portée globale valide</t>
+  </si>
+  <si>
     <t>NBSUPHS</t>
   </si>
   <si>
+    <t>HEMODIALYSE HORS SEANCES</t>
+  </si>
+  <si>
     <t>NBSUPAHS</t>
   </si>
   <si>
+    <t>DIALYSE PERITONALE AUTO HORS SEANCES</t>
+  </si>
+  <si>
     <t>NBSUPCHS</t>
   </si>
   <si>
+    <t>DIALYSE CONTINUE AMBULATOIRE HORS SEANCES</t>
+  </si>
+  <si>
     <t>NBSUPEHS</t>
   </si>
   <si>
     <t>NBACTE9615</t>
   </si>
   <si>
+    <t>Nombre d'actes menant dans le GHS 9615</t>
+  </si>
+  <si>
     <t>NBSUPREAPED</t>
   </si>
   <si>
+    <t>RADIOTHERAPIE PEDIAT.</t>
+  </si>
+  <si>
     <t>NBSUPATPART</t>
   </si>
   <si>
+    <t>SUPPLEMENTS ANTEPARTUM</t>
+  </si>
+  <si>
     <t>NB_RDTH</t>
   </si>
   <si>
+    <t>ZONES DE SUPPLEMENTS DE RADIOTHERAPIE</t>
+  </si>
+  <si>
     <t>VALVAORT</t>
   </si>
   <si>
+    <t>Pose de valve aortique</t>
+  </si>
+  <si>
+    <t>FILLER2</t>
+  </si>
+  <si>
     <t>NBSUPCAISSON</t>
   </si>
   <si>
+    <t>SUPPLEMENTS CAISSON HYPERBARE</t>
+  </si>
+  <si>
     <t>TYPRESTPO</t>
   </si>
   <si>
+    <t>Type de prestation prélévement d'organe</t>
+  </si>
+  <si>
     <t>NBSUPREA</t>
   </si>
   <si>
+    <t>SUPPLEMENTS POUR REA</t>
+  </si>
+  <si>
     <t>NBSUPSI</t>
   </si>
   <si>
+    <t>SUPPLEMENTS SOINS INTENSIFS PROVENANT DE REA</t>
+  </si>
+  <si>
     <t>NBSUPSTF</t>
   </si>
   <si>
+    <t>SUPPLEMENTS POUR STF</t>
+  </si>
+  <si>
     <t>NBSUPSRC</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPPLEMENTS POUR SRC </t>
+  </si>
+  <si>
     <t>NBSUPNN1</t>
   </si>
   <si>
+    <t>SUPPLEMENTS NN1</t>
+  </si>
+  <si>
     <t>NBSUPNN2</t>
   </si>
   <si>
+    <t>SUPPLEMENTS NN2</t>
+  </si>
+  <si>
     <t>NBSUPNN3</t>
   </si>
   <si>
+    <t>SUPPLEMENTS NN3</t>
+  </si>
+  <si>
     <t>NBSUPREP</t>
   </si>
   <si>
+    <t>SUPPLEMENTS REP</t>
+  </si>
+  <si>
     <t>PASLITSP</t>
   </si>
   <si>
+    <t>Passage dans un lit dédié SP</t>
+  </si>
+  <si>
     <t>TYPMACHRADIO</t>
   </si>
   <si>
+    <t>Type de machine radiothérapie</t>
+  </si>
+  <si>
     <t>TYPEDOSIM</t>
   </si>
   <si>
+    <t>Type de dosimétrie</t>
+  </si>
+  <si>
     <t>NUMINNO</t>
   </si>
   <si>
+    <t>Numéro d'innovation</t>
+  </si>
+  <si>
     <t>NBFAISC</t>
   </si>
   <si>
+    <t>Nombre de faisceaux</t>
+  </si>
+  <si>
     <t>NOSEQRUM</t>
   </si>
   <si>
+    <t>Numéro du RUM fournissant le DP</t>
+  </si>
+  <si>
     <t>DP</t>
   </si>
   <si>
+    <t>Diagnostic principal</t>
+  </si>
+  <si>
     <t>DR</t>
   </si>
   <si>
+    <t>Diagnostic relié</t>
+  </si>
+  <si>
     <t>NDAS</t>
   </si>
   <si>
+    <t>Nombre de DAS du séjour</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>verif</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>FILLER1</t>
+    <t>Nombre d'actes du séjour</t>
   </si>
   <si>
     <t>ZA</t>
-  </si>
-  <si>
-    <t>FILLER2</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>Nombre de faisceaux</t>
-  </si>
-  <si>
-    <t>Finess de l'établissement</t>
-  </si>
-  <si>
-    <t>Numéro de version du RSA</t>
-  </si>
-  <si>
-    <t>Clé RSA</t>
-  </si>
-  <si>
-    <t>Numéro de version du RSS groupé</t>
-  </si>
-  <si>
-    <t>Numéro séquentiel des tarifs</t>
-  </si>
-  <si>
-    <t>Groupage lu : Version de la classification</t>
-  </si>
-  <si>
-    <t>Groupage lu : CMD du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Type de GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Numéro du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Niveau de sévérité du GHM</t>
-  </si>
-  <si>
-    <t>Groupage lu : Codes retours</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Version de la classification</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : CMD du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Type de GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Numéro du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Niveau de sévérité du GHM</t>
-  </si>
-  <si>
-    <t>Gp Genrsa : Codes retours</t>
-  </si>
-  <si>
-    <t>Nombre de RUM du séjour</t>
-  </si>
-  <si>
-    <t>Âge en années</t>
-  </si>
-  <si>
-    <t>Âge en jours</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>Mode d'entrée dans le champ PMSI</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>Mois de sortie</t>
-  </si>
-  <si>
-    <t>Année de sortie</t>
-  </si>
-  <si>
-    <t>Mode de sortie du champ PMSI</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Type de séjour</t>
-  </si>
-  <si>
-    <t>Durée du séjour</t>
-  </si>
-  <si>
-    <t>Code géographique</t>
-  </si>
-  <si>
-    <t>Poids à l'entrée (grammes)</t>
-  </si>
-  <si>
-    <t>Âge gestationnel</t>
-  </si>
-  <si>
-    <t>Délai depuis les dernières rêgles / date d'entrée</t>
-  </si>
-  <si>
-    <t>Nombre de séances</t>
-  </si>
-  <si>
-    <t>Numéro du GHS</t>
-  </si>
-  <si>
-    <t>Nombre de jours EXH</t>
-  </si>
-  <si>
-    <t>Séjour inférieur à la borne extrême basse</t>
-  </si>
-  <si>
-    <t>Nombre de jours EXB</t>
-  </si>
-  <si>
-    <t>Top UHCD</t>
-  </si>
-  <si>
-    <t>Confirmation codage du séjour</t>
-  </si>
-  <si>
-    <t>Nb autorisations UM à portée globale valide</t>
-  </si>
-  <si>
-    <t>HEMODIALYSE HORS SEANCES</t>
-  </si>
-  <si>
-    <t>DIALYSE PERITONALE AUTO HORS SEANCES</t>
-  </si>
-  <si>
-    <t>DIALYSE CONTINUE AMBULATOIRE HORS SEANCES</t>
-  </si>
-  <si>
-    <t>Nombre d'actes menant dans le GHS 9615</t>
-  </si>
-  <si>
-    <t>RADIOTHERAPIE PEDIAT.</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS ANTEPARTUM</t>
-  </si>
-  <si>
-    <t>ZONES DE SUPPLEMENTS DE RADIOTHERAPIE</t>
-  </si>
-  <si>
-    <t>Pose de valve aortique</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS CAISSON HYPERBARE</t>
-  </si>
-  <si>
-    <t>Type de prestation prélévement d'organe</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS POUR REA</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS SOINS INTENSIFS PROVENANT DE REA</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS POUR STF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLEMENTS POUR SRC </t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN1</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN2</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS NN3</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTS REP</t>
-  </si>
-  <si>
-    <t>Passage dans un lit dédié SP</t>
-  </si>
-  <si>
-    <t>Type de machine radiothérapie</t>
-  </si>
-  <si>
-    <t>Type de dosimétrie</t>
-  </si>
-  <si>
-    <t>Numéro d'innovation</t>
-  </si>
-  <si>
-    <t>Numéro du RUM fournissant le DP</t>
-  </si>
-  <si>
-    <t>Diagnostic principal</t>
-  </si>
-  <si>
-    <t>Diagnostic relié</t>
-  </si>
-  <si>
-    <t>Nombre de DAS du séjour</t>
-  </si>
-  <si>
-    <t>Nombre d'actes du séjour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -537,120 +851,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -659,7 +1161,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -975,47 +1477,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -1029,18 +1532,18 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1054,18 +1557,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1079,18 +1582,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1104,18 +1607,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1129,18 +1632,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1154,18 +1657,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1179,18 +1682,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1204,18 +1707,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1229,18 +1732,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1254,18 +1757,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1279,18 +1782,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1304,18 +1807,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1329,18 +1832,18 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1354,18 +1857,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1379,18 +1882,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1404,18 +1907,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1429,18 +1932,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1454,18 +1957,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1479,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1504,18 +2007,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1529,18 +2032,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1554,18 +2057,18 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1579,18 +2082,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1604,18 +2107,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1629,18 +2132,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1654,18 +2157,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1679,18 +2182,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1704,18 +2207,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1729,18 +2232,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1754,18 +2257,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1779,18 +2282,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1804,18 +2307,18 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1829,18 +2332,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1854,18 +2357,18 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1879,18 +2382,18 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1904,18 +2407,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
         <v>80</v>
       </c>
-      <c r="G37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1929,18 +2432,18 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1954,18 +2457,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1979,15 +2482,15 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2001,18 +2504,18 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2026,18 +2529,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2051,18 +2554,18 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2076,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2101,18 +2604,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2126,18 +2629,18 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2151,18 +2654,18 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2176,18 +2679,18 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2201,18 +2704,18 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2226,18 +2729,18 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2251,18 +2754,18 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2276,18 +2779,18 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -2301,15 +2804,15 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2323,18 +2826,18 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2348,18 +2851,18 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2373,18 +2876,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -2398,18 +2901,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -2423,18 +2926,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -2448,18 +2951,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2473,18 +2976,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2498,18 +3001,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2523,18 +3026,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2548,18 +3051,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2573,18 +3076,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2598,18 +3101,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2623,18 +3126,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C67">
         <v>15</v>
@@ -2648,18 +3151,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2673,18 +3176,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -2698,18 +3201,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -2723,18 +3226,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C71">
         <v>6</v>
@@ -2748,18 +3251,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2773,18 +3276,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2798,18 +3301,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1">
         <v>219</v>
@@ -2818,12 +3321,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F74"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>